--- a/Assets/Data/Table/Convert/Target_TargetFilter.xlsx
+++ b/Assets/Data/Table/Convert/Target_TargetFilter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769751EB-F3DB-4B36-9556-79B9DE0DF150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419714C4-E7C9-4BE1-8CD0-7C2E4330DD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26148" yWindow="8640" windowWidth="27168" windowHeight="20184" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TargetFilter" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="55">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,70 @@
   </si>
   <si>
     <t>FactionRelation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackCollider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackColliderAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RayFromOffset_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RayFromOffset_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RayToOffset_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RayToOffset_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseRayCasting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Degree_Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Degree_Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_BackAssaultAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_AirAssaultAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#각도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_HangAssaultAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 컨디션은 Target이 Self</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,6 +262,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0\˚"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +339,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -374,6 +447,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,10 +753,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -674,16 +765,19 @@
     <col min="2" max="2" width="25.09765625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.796875" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="5.796875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="6.3984375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="20.09765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.19921875" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.69921875" style="13" customWidth="1"/>
-    <col min="13" max="13" width="13.3984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.69921875" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="15"/>
+    <col min="9" max="11" width="6.3984375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="5.3984375" style="24" customWidth="1"/>
+    <col min="13" max="13" width="9.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="6.3984375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="20.09765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.19921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.69921875" style="13" customWidth="1"/>
+    <col min="21" max="21" width="13.3984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.69921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="108.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" s="9" customFormat="1" ht="108.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -711,23 +805,47 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="U1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -755,23 +873,47 @@
       <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="T2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="U2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="V2" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
@@ -799,23 +941,51 @@
       <c r="I3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="13">
-        <v>1</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>4</v>
+      <c r="J3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="24" t="str">
+        <f>IFERROR(K3-J3,"")</f>
+        <v/>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="13">
+        <v>1</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="25" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -843,23 +1013,48 @@
       <c r="I4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="13">
-        <v>1</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="J4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="24" t="str">
+        <f t="shared" ref="L4:L13" si="0">IFERROR(K4-J4,"")</f>
+        <v/>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="13">
+        <v>1</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
@@ -887,23 +1082,48 @@
       <c r="I5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="13">
-        <v>1</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="J5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="13">
+        <v>1</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>35</v>
       </c>
@@ -931,113 +1151,188 @@
       <c r="I6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="11">
-        <v>1</v>
-      </c>
-      <c r="M6" s="10" t="s">
+      <c r="S6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="11">
+        <v>1</v>
+      </c>
+      <c r="U6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="V6" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="10" t="s">
-        <v>17</v>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="11">
-        <v>10</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>10</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="C7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="S7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="11">
         <v>-1</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="10" t="s">
+      <c r="U7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V7" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>5</v>
-      </c>
-      <c r="J8" s="12" t="s">
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11">
         <v>2</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="11">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="10" t="s">
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="11">
+        <v>1</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>34</v>
@@ -1061,21 +1356,322 @@
         <v>0</v>
       </c>
       <c r="I9" s="13">
+        <v>5</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
         <v>10</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="11">
+      <c r="S10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="11">
         <v>-1</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="12" t="s">
+      <c r="U10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>0</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11" s="13">
+        <v>1</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>5</v>
+      </c>
+      <c r="J12" s="13">
+        <v>150</v>
+      </c>
+      <c r="K12" s="13">
+        <v>210</v>
+      </c>
+      <c r="L12" s="24">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="M12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="13">
+        <v>1</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="13">
+        <v>2</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M13" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T13" s="13">
+        <v>1</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>4</v>
       </c>
     </row>
